--- a/VOTOS + COMENTARIOS Cambio Climático.xlsx
+++ b/VOTOS + COMENTARIOS Cambio Climático.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Congreso Virtual/Cambio Climático/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE559B9F-72EB-2946-ABCA-E88A8D587A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BB423A-882C-944F-A249-A24DD4CA9210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VOTO GENERAL" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Key" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COMENTARIOS!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COMENTARIOS!$A$1:$F$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VOTO GENERAL'!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="169">
   <si>
     <t xml:space="preserve">vote </t>
   </si>
@@ -547,6 +547,9 @@
   <si>
     <t xml:space="preserve">Plazo muy largo y objetivos insuficientes                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
   </si>
+  <si>
+    <t>No responde</t>
+  </si>
 </sst>
 </file>
 
@@ -900,9 +903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A66BC0-2683-7241-8FC0-48B2AEE57E6D}">
   <dimension ref="A1:U260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="R230" sqref="R230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17815,24 +17818,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D1D18F-2D82-624E-8780-7CF4C7DD4A5D}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="57.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="4"/>
     <col min="4" max="4" width="13" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" style="4" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -17848,167 +17851,236 @@
       <c r="E1" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>19245</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>19245</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>23445</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>27115</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>33825</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>51559</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="221" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>125151</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="289" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>61747</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>92140</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>117067</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>33825</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
+      <c r="D7" s="4">
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="F7" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
+        <v>61747</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>70067</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>108505</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>134571</v>
+        <v>84113</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="F10" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="404" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>137754</v>
+        <v>92131</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>92140</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>19245</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>27115</v>
+        <v>95209</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -18017,41 +18089,53 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>92131</v>
+        <v>108505</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>95209</v>
+        <v>110768</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>111746</v>
       </c>
@@ -18061,190 +18145,298 @@
       <c r="C16" s="4">
         <v>1</v>
       </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
+        <v>117067</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>125151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="372" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>128847</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>163790</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>200086</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="C19" s="4">
         <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>203195</v>
+        <v>134571</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="404" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>203432</v>
+        <v>137754</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C21" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>163790</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>203491</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>203582</v>
+        <v>174774</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>84113</v>
+        <v>200086</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>19245</v>
+        <v>200750</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>23445</v>
+        <v>203195</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>135</v>
+        <v>154</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="388" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>110768</v>
+        <v>203432</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F27" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>174774</v>
+        <v>203452</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="F28" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>200750</v>
+        <v>203491</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>203452</v>
+        <v>203582</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="F30" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{D68B5EFA-0FE2-1542-B714-105AC21E749A}"/>
+  <autoFilter ref="A1:F30" xr:uid="{316BF650-8745-7148-A2F6-60A1F0CCC60F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/VOTOS + COMENTARIOS Cambio Climático.xlsx
+++ b/VOTOS + COMENTARIOS Cambio Climático.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Congreso Virtual/Cambio Climático/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BB423A-882C-944F-A249-A24DD4CA9210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3877B4A-662F-A141-AB1F-556363678143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VOTO GENERAL" sheetId="6" r:id="rId1"/>
     <sheet name="COMENTARIOS" sheetId="5" r:id="rId2"/>
-    <sheet name="Key" sheetId="2" r:id="rId3"/>
+    <sheet name="COMENTARIOS2" sheetId="7" r:id="rId3"/>
+    <sheet name="Key" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COMENTARIOS!$A$1:$F$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COMENTARIOS2!$A$1:$H$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VOTO GENERAL'!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="196">
   <si>
     <t xml:space="preserve">vote </t>
   </si>
@@ -549,13 +551,94 @@
   </si>
   <si>
     <t>No responde</t>
+  </si>
+  <si>
+    <t>Hay en que pregunta de las ideas fundamentales podrían ir estas observaciones para presentarlas en el reporte, tal vez que al no considerar todas estas observaciones no se alcanzará la meta de neutralidad.</t>
+  </si>
+  <si>
+    <t>No aporta nada en específico. Si tomar nota de dar mayor información respecto a los proyectos en el Congreso Virtual.</t>
+  </si>
+  <si>
+    <t>Pensando en la trazabilidad de los comentarios, habría que juntar todos los que dicen que el plazo debería acortarse para que si se acorta, podamos decirles a todos que su comentario fue tomado en cuenta.</t>
+  </si>
+  <si>
+    <t>Este comentario lo agregaría a los de que hay que acortar el plazo.</t>
+  </si>
+  <si>
+    <t>Muy buen comentario</t>
+  </si>
+  <si>
+    <t>No sé si puedes decir que % de los comentarios expresaron que el plazo era muy largo. Tomar nota del usario para efectos de trazabilidad.</t>
+  </si>
+  <si>
+    <t>Habría que ver si en EE.UU. Este tipo de filtros es recomendable para combatir el cambio climático. Si lo es, lo agregamos.</t>
+  </si>
+  <si>
+    <t>Si hay varios comentarios parecidos los incluimos igual que el de acortar el plazo.</t>
+  </si>
+  <si>
+    <t>Lo agregamos a comentarios de plazo.</t>
+  </si>
+  <si>
+    <t>Se hacen audiencias públicas, podría ser un comentario bueno si propusiera una mesa de diálogo de seguimientento de la ley. Lo cambiaría  a NO</t>
+  </si>
+  <si>
+    <t>Lo mismo a plazo.</t>
+  </si>
+  <si>
+    <t>Muy buen comentario.</t>
+  </si>
+  <si>
+    <t>Tomar nota para subir más información o contestar como administradores donde puede contar con mayores datos del proyecto.</t>
+  </si>
+  <si>
+    <t>A plazo.</t>
+  </si>
+  <si>
+    <t>A plazo, ya que no nos dice cuales deberían ser los objetivos suficientes.</t>
+  </si>
+  <si>
+    <t>Este pasa si es que como en el comentario anterior estos filtros de verdad sirven y que no fueron considerados en el proyecto de ley.</t>
+  </si>
+  <si>
+    <t>Hay que ver como sistematizar el comentario o volverlo varias indicaciones, la rendición de cuentas ya está establecida en la ley y lo hacen todos los miniserios.  Por lo que podría ser: normativa de respeto al ambiente de pueblos originarios. Incorporar la prohibición o limitación del uso indiscrimindado y comercial del agua..." Normar la necesria coordinación y expedita comunicación...."</t>
+  </si>
+  <si>
+    <t>Igual, hay que ver si sirven los filtros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podemos agregarlo a % de los usuarios rechazaron el proyecto por considerarlo insuficiente. </t>
+  </si>
+  <si>
+    <t>Agregarlo a plazo.</t>
+  </si>
+  <si>
+    <t>comentario rocio</t>
+  </si>
+  <si>
+    <t>patterns</t>
+  </si>
+  <si>
+    <t>acortar plazo</t>
+  </si>
+  <si>
+    <t>filtro</t>
+  </si>
+  <si>
+    <t>aguas privadas</t>
+  </si>
+  <si>
+    <t>Si*</t>
+  </si>
+  <si>
+    <t>varias indicaciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -571,8 +654,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +689,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -604,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -620,6 +736,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17820,7 +17960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D1D18F-2D82-624E-8780-7CF4C7DD4A5D}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
@@ -18442,6 +18582,609 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A312345-CAC5-284A-8355-6A74C7B60667}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="201" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>51559</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>125151</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>61747</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>92140</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>117067</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>33825</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>70067</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>108505</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>134571</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>137754</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>19245</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>27115</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>92131</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>95209</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>111746</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>128847</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>163790</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>200086</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>203195</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="154" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>203432</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>203491</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>203582</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>84113</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>19245</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="191" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>23445</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>110768</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>174774</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>200750</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>203452</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H30" xr:uid="{A21AEBF6-E113-2748-8984-F4BB178FA2AF}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465B9BCE-564D-3842-9CF5-D85549B3C6E6}">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/VOTOS + COMENTARIOS Cambio Climático.xlsx
+++ b/VOTOS + COMENTARIOS Cambio Climático.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Congreso Virtual/Cambio Climático/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3877B4A-662F-A141-AB1F-556363678143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9413947F-BB65-5A4E-A17F-4FDFF974B5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="198">
   <si>
     <t xml:space="preserve">vote </t>
   </si>
@@ -632,6 +632,12 @@
   </si>
   <si>
     <t>varias indicaciones</t>
+  </si>
+  <si>
+    <t>acortar  plazo: 13</t>
+  </si>
+  <si>
+    <t>filtro: 3</t>
   </si>
 </sst>
 </file>
@@ -670,7 +676,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +713,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -720,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -759,6 +777,12 @@
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
   </cellXfs>
@@ -1044,8 +1068,8 @@
   <dimension ref="A1:U260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R230" sqref="R230"/>
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18583,10 +18607,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A312345-CAC5-284A-8355-6A74C7B60667}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18630,7 +18654,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="17" t="s">
         <v>163</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -18888,7 +18912,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="283" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>111746</v>
       </c>
@@ -19006,7 +19030,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>203491</v>
       </c>
@@ -19092,7 +19116,7 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="16" t="s">
         <v>163</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -19178,9 +19202,23 @@
         <v>191</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G34" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H30" xr:uid="{A21AEBF6-E113-2748-8984-F4BB178FA2AF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
